--- a/unravel.xlsx
+++ b/unravel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tvdstorm/CWI/gradual-grammars/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A8FDADC1-F257-5E48-8972-77C9ACB01F94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B29DE046-A6EB-2A40-8BC4-7B18FF66A615}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20600" activeTab="4"/>
   </bookViews>
@@ -16976,7 +16976,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
